--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itga8.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.253707</v>
+        <v>0.06706333333333332</v>
       </c>
       <c r="N2">
-        <v>3.761121</v>
+        <v>0.20119</v>
       </c>
       <c r="O2">
-        <v>0.07760709912293905</v>
+        <v>0.01564803973866319</v>
       </c>
       <c r="P2">
-        <v>0.1037097015912075</v>
+        <v>0.01878890697104963</v>
       </c>
       <c r="Q2">
-        <v>30.99387741440901</v>
+        <v>1.958886815025555</v>
       </c>
       <c r="R2">
-        <v>278.944896729681</v>
+        <v>17.62998133523</v>
       </c>
       <c r="S2">
-        <v>0.00104059277112167</v>
+        <v>0.0002862805268117657</v>
       </c>
       <c r="T2">
-        <v>0.001395754767830128</v>
+        <v>0.0003458714682930769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.505127</v>
       </c>
       <c r="O3">
-        <v>0.07232491018701338</v>
+        <v>0.2726197454399388</v>
       </c>
       <c r="P3">
-        <v>0.09665088552303537</v>
+        <v>0.3273398534952746</v>
       </c>
       <c r="Q3">
-        <v>28.88433436731634</v>
+        <v>34.12767565629544</v>
       </c>
       <c r="R3">
-        <v>259.959009305847</v>
+        <v>307.149080906659</v>
       </c>
       <c r="S3">
-        <v>0.0009697666780896931</v>
+        <v>0.004987571967305254</v>
       </c>
       <c r="T3">
-        <v>0.001300755206253698</v>
+        <v>0.006025763815516219</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6422343333333332</v>
+        <v>0.72155</v>
       </c>
       <c r="N4">
-        <v>1.926703</v>
+        <v>2.16465</v>
       </c>
       <c r="O4">
-        <v>0.03975565548182683</v>
+        <v>0.1683608987539007</v>
       </c>
       <c r="P4">
-        <v>0.05312719085211143</v>
+        <v>0.2021542197668005</v>
       </c>
       <c r="Q4">
-        <v>15.87718039275367</v>
+        <v>21.07611881378334</v>
       </c>
       <c r="R4">
-        <v>142.894623534783</v>
+        <v>189.68506932405</v>
       </c>
       <c r="S4">
-        <v>0.0005330626730430725</v>
+        <v>0.003080158767150896</v>
       </c>
       <c r="T4">
-        <v>0.0007150008995835579</v>
+        <v>0.003721311565388981</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.1977655</v>
+        <v>2.1492875</v>
       </c>
       <c r="N5">
-        <v>24.395531</v>
+        <v>4.298575</v>
       </c>
       <c r="O5">
-        <v>0.7550673293176684</v>
+        <v>0.501498129277977</v>
       </c>
       <c r="P5">
-        <v>0.6726859466018379</v>
+        <v>0.4014390664699025</v>
       </c>
       <c r="Q5">
-        <v>301.5505605669485</v>
+        <v>62.77962541054583</v>
       </c>
       <c r="R5">
-        <v>1809.303363401691</v>
+        <v>376.677752463275</v>
       </c>
       <c r="S5">
-        <v>0.01012430065648297</v>
+        <v>0.009174896730999697</v>
       </c>
       <c r="T5">
-        <v>0.009053199486801325</v>
+        <v>0.007389802906794141</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H6">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I6">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J6">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.8924576666666667</v>
+        <v>0.1794573333333333</v>
       </c>
       <c r="N6">
-        <v>2.677373</v>
+        <v>0.538372</v>
       </c>
       <c r="O6">
-        <v>0.05524500589055249</v>
+        <v>0.04187318678952025</v>
       </c>
       <c r="P6">
-        <v>0.07382627543180768</v>
+        <v>0.05027795329697268</v>
       </c>
       <c r="Q6">
-        <v>22.06314834185034</v>
+        <v>5.241859994924889</v>
       </c>
       <c r="R6">
-        <v>198.568335076653</v>
+        <v>47.176739954324</v>
       </c>
       <c r="S6">
-        <v>0.000740751225338493</v>
+        <v>0.0007660689884224065</v>
       </c>
       <c r="T6">
-        <v>0.0009935750883871199</v>
+        <v>0.0009255306631934014</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.253707</v>
+        <v>0.06706333333333332</v>
       </c>
       <c r="N7">
-        <v>3.761121</v>
+        <v>0.20119</v>
       </c>
       <c r="O7">
-        <v>0.07760709912293905</v>
+        <v>0.01564803973866319</v>
       </c>
       <c r="P7">
-        <v>0.1037097015912075</v>
+        <v>0.01878890697104963</v>
       </c>
       <c r="Q7">
-        <v>1828.2570796972</v>
+        <v>97.79718383542553</v>
       </c>
       <c r="R7">
-        <v>16454.3137172748</v>
+        <v>880.1746545188299</v>
       </c>
       <c r="S7">
-        <v>0.06138215865822791</v>
+        <v>0.01429252016724992</v>
       </c>
       <c r="T7">
-        <v>0.08233234266520735</v>
+        <v>0.01726759060739572</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.505127</v>
       </c>
       <c r="O8">
-        <v>0.07232491018701338</v>
+        <v>0.2726197454399388</v>
       </c>
       <c r="P8">
-        <v>0.09665088552303537</v>
+        <v>0.3273398534952746</v>
       </c>
       <c r="Q8">
         <v>1703.820018815615</v>
@@ -948,10 +948,10 @@
         <v>15334.38016934054</v>
       </c>
       <c r="S8">
-        <v>0.05720429138845531</v>
+        <v>0.249003918367077</v>
       </c>
       <c r="T8">
-        <v>0.0767285384461362</v>
+        <v>0.3008355189767342</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6422343333333332</v>
+        <v>0.72155</v>
       </c>
       <c r="N9">
-        <v>1.926703</v>
+        <v>2.16465</v>
       </c>
       <c r="O9">
-        <v>0.03975565548182683</v>
+        <v>0.1683608987539007</v>
       </c>
       <c r="P9">
-        <v>0.05312719085211143</v>
+        <v>0.2021542197668005</v>
       </c>
       <c r="Q9">
-        <v>936.5581166423077</v>
+        <v>1052.222645207783</v>
       </c>
       <c r="R9">
-        <v>8429.02304978077</v>
+        <v>9470.003806870049</v>
       </c>
       <c r="S9">
-        <v>0.03144413307449658</v>
+        <v>0.1537765484369877</v>
       </c>
       <c r="T9">
-        <v>0.04217624788197002</v>
+        <v>0.1857860232034353</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J10">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.1977655</v>
+        <v>2.1492875</v>
       </c>
       <c r="N10">
-        <v>24.395531</v>
+        <v>4.298575</v>
       </c>
       <c r="O10">
-        <v>0.7550673293176684</v>
+        <v>0.501498129277977</v>
       </c>
       <c r="P10">
-        <v>0.6726859466018379</v>
+        <v>0.4014390664699025</v>
       </c>
       <c r="Q10">
-        <v>17787.76949627086</v>
+        <v>3134.265093981045</v>
       </c>
       <c r="R10">
-        <v>106726.6169776252</v>
+        <v>18805.59056388627</v>
       </c>
       <c r="S10">
-        <v>0.5972090585733817</v>
+        <v>0.4580555933043616</v>
       </c>
       <c r="T10">
-        <v>0.534027280109225</v>
+        <v>0.3689350032068495</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J11">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.8924576666666667</v>
+        <v>0.1794573333333333</v>
       </c>
       <c r="N11">
-        <v>2.677373</v>
+        <v>0.538372</v>
       </c>
       <c r="O11">
-        <v>0.05524500589055249</v>
+        <v>0.04187318678952025</v>
       </c>
       <c r="P11">
-        <v>0.07382627543180768</v>
+        <v>0.05027795329697268</v>
       </c>
       <c r="Q11">
-        <v>1301.45404581244</v>
+        <v>261.6992169384449</v>
       </c>
       <c r="R11">
-        <v>11713.08641231196</v>
+        <v>2355.292952446004</v>
       </c>
       <c r="S11">
-        <v>0.04369519998778439</v>
+        <v>0.0382459002310387</v>
       </c>
       <c r="T11">
-        <v>0.05860869439684982</v>
+        <v>0.04620700477401883</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.253707</v>
+        <v>0.06706333333333332</v>
       </c>
       <c r="N12">
-        <v>3.761121</v>
+        <v>0.20119</v>
       </c>
       <c r="O12">
-        <v>0.07760709912293905</v>
+        <v>0.01564803973866319</v>
       </c>
       <c r="P12">
-        <v>0.1037097015912075</v>
+        <v>0.01878890697104963</v>
       </c>
       <c r="Q12">
-        <v>75.34752742153002</v>
+        <v>3.888736413857777</v>
       </c>
       <c r="R12">
-        <v>678.12774679377</v>
+        <v>34.99862772472</v>
       </c>
       <c r="S12">
-        <v>0.002529728414047512</v>
+        <v>0.0005683174242901713</v>
       </c>
       <c r="T12">
-        <v>0.003393143401732628</v>
+        <v>0.0006866159713511558</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.505127</v>
       </c>
       <c r="O13">
-        <v>0.07232491018701338</v>
+        <v>0.2726197454399388</v>
       </c>
       <c r="P13">
-        <v>0.09665088552303537</v>
+        <v>0.3273398534952746</v>
       </c>
       <c r="Q13">
-        <v>70.21913220777668</v>
+        <v>67.74946567968621</v>
       </c>
       <c r="R13">
-        <v>631.97218986999</v>
+        <v>609.7451911171759</v>
       </c>
       <c r="S13">
-        <v>0.002357546956544369</v>
+        <v>0.009901211533624612</v>
       </c>
       <c r="T13">
-        <v>0.003162195141364737</v>
+        <v>0.01196220577471128</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H14">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I14">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J14">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6422343333333332</v>
+        <v>0.72155</v>
       </c>
       <c r="N14">
-        <v>1.926703</v>
+        <v>2.16465</v>
       </c>
       <c r="O14">
-        <v>0.03975565548182683</v>
+        <v>0.1683608987539007</v>
       </c>
       <c r="P14">
-        <v>0.05312719085211143</v>
+        <v>0.2021542197668005</v>
       </c>
       <c r="Q14">
-        <v>38.59814856412333</v>
+        <v>41.83981946546666</v>
       </c>
       <c r="R14">
-        <v>347.38333707711</v>
+        <v>376.5583751891999</v>
       </c>
       <c r="S14">
-        <v>0.001295899633255772</v>
+        <v>0.006114659339379291</v>
       </c>
       <c r="T14">
-        <v>0.0017381997472425</v>
+        <v>0.007387460919455637</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H15">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I15">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J15">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.1977655</v>
+        <v>2.1492875</v>
       </c>
       <c r="N15">
-        <v>24.395531</v>
+        <v>4.298575</v>
       </c>
       <c r="O15">
-        <v>0.7550673293176684</v>
+        <v>0.501498129277977</v>
       </c>
       <c r="P15">
-        <v>0.6726859466018379</v>
+        <v>0.4014390664699025</v>
       </c>
       <c r="Q15">
-        <v>733.083145019245</v>
+        <v>124.6286480207666</v>
       </c>
       <c r="R15">
-        <v>4398.49887011547</v>
+        <v>747.7718881245999</v>
       </c>
       <c r="S15">
-        <v>0.024612635945431</v>
+        <v>0.01821379098452798</v>
       </c>
       <c r="T15">
-        <v>0.02200874022516525</v>
+        <v>0.0146700643622983</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H16">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I16">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J16">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.8924576666666667</v>
+        <v>0.1794573333333333</v>
       </c>
       <c r="N16">
-        <v>2.677373</v>
+        <v>0.538372</v>
       </c>
       <c r="O16">
-        <v>0.05524500589055249</v>
+        <v>0.04187318678952025</v>
       </c>
       <c r="P16">
-        <v>0.07382627543180768</v>
+        <v>0.05027795329697268</v>
       </c>
       <c r="Q16">
-        <v>53.63651835055668</v>
+        <v>10.40601819474844</v>
       </c>
       <c r="R16">
-        <v>482.72866515501</v>
+        <v>93.65416375273598</v>
       </c>
       <c r="S16">
-        <v>0.001800799961794271</v>
+        <v>0.00152078228714125</v>
       </c>
       <c r="T16">
-        <v>0.002415426286186244</v>
+        <v>0.00183734188442897</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H17">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I17">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J17">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.253707</v>
+        <v>0.06706333333333332</v>
       </c>
       <c r="N17">
-        <v>3.761121</v>
+        <v>0.20119</v>
       </c>
       <c r="O17">
-        <v>0.07760709912293905</v>
+        <v>0.01564803973866319</v>
       </c>
       <c r="P17">
-        <v>0.1037097015912075</v>
+        <v>0.01878890697104963</v>
       </c>
       <c r="Q17">
-        <v>25.665942359694</v>
+        <v>1.977099830383333</v>
       </c>
       <c r="R17">
-        <v>153.995654158164</v>
+        <v>11.8625989823</v>
       </c>
       <c r="S17">
-        <v>0.0008617119351161471</v>
+        <v>0.0002889422587665991</v>
       </c>
       <c r="T17">
-        <v>0.0007705470544050512</v>
+        <v>0.0002327248367291895</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H18">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I18">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J18">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.505127</v>
       </c>
       <c r="O18">
-        <v>0.07232491018701338</v>
+        <v>0.2726197454399388</v>
       </c>
       <c r="P18">
-        <v>0.09665088552303537</v>
+        <v>0.3273398534952746</v>
       </c>
       <c r="Q18">
-        <v>23.919035719778</v>
+        <v>34.44498234093167</v>
       </c>
       <c r="R18">
-        <v>143.514214318668</v>
+        <v>206.66989404559</v>
       </c>
       <c r="S18">
-        <v>0.0008030610474903241</v>
+        <v>0.005033944592891263</v>
       </c>
       <c r="T18">
-        <v>0.0007181011419642213</v>
+        <v>0.004054526113574601</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H19">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I19">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J19">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6422343333333332</v>
+        <v>0.72155</v>
       </c>
       <c r="N19">
-        <v>1.926703</v>
+        <v>2.16465</v>
       </c>
       <c r="O19">
-        <v>0.03975565548182683</v>
+        <v>0.1683608987539007</v>
       </c>
       <c r="P19">
-        <v>0.05312719085211143</v>
+        <v>0.2021542197668005</v>
       </c>
       <c r="Q19">
-        <v>13.147848245842</v>
+        <v>21.27207688175</v>
       </c>
       <c r="R19">
-        <v>78.88708947505199</v>
+        <v>127.6324612905</v>
       </c>
       <c r="S19">
-        <v>0.0004414276941699258</v>
+        <v>0.003108796960281917</v>
       </c>
       <c r="T19">
-        <v>0.0003947268171812008</v>
+        <v>0.002503940642307471</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H20">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I20">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J20">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.1977655</v>
+        <v>2.1492875</v>
       </c>
       <c r="N20">
-        <v>24.395531</v>
+        <v>4.298575</v>
       </c>
       <c r="O20">
-        <v>0.7550673293176684</v>
+        <v>0.501498129277977</v>
       </c>
       <c r="P20">
-        <v>0.6726859466018379</v>
+        <v>0.4014390664699025</v>
       </c>
       <c r="Q20">
-        <v>249.713167622151</v>
+        <v>63.36332747693749</v>
       </c>
       <c r="R20">
-        <v>998.8526704886041</v>
+        <v>253.45330990775</v>
       </c>
       <c r="S20">
-        <v>0.008383904782455532</v>
+        <v>0.009260201575458277</v>
       </c>
       <c r="T20">
-        <v>0.004997952619098697</v>
+        <v>0.00497234039983685</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H21">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I21">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J21">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.8924576666666667</v>
+        <v>0.1794573333333333</v>
       </c>
       <c r="N21">
-        <v>2.677373</v>
+        <v>0.538372</v>
       </c>
       <c r="O21">
-        <v>0.05524500589055249</v>
+        <v>0.04187318678952025</v>
       </c>
       <c r="P21">
-        <v>0.07382627543180768</v>
+        <v>0.05027795329697268</v>
       </c>
       <c r="Q21">
-        <v>18.270430835222</v>
+        <v>5.290596897873333</v>
       </c>
       <c r="R21">
-        <v>109.622585011332</v>
+        <v>31.74358138724</v>
       </c>
       <c r="S21">
-        <v>0.000613413997810154</v>
+        <v>0.0007731916185530668</v>
       </c>
       <c r="T21">
-        <v>0.0005485178165482086</v>
+        <v>0.0006227572732221642</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H22">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I22">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J22">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.253707</v>
+        <v>0.06706333333333332</v>
       </c>
       <c r="N22">
-        <v>3.761121</v>
+        <v>0.20119</v>
       </c>
       <c r="O22">
-        <v>0.07760709912293905</v>
+        <v>0.01564803973866319</v>
       </c>
       <c r="P22">
-        <v>0.1037097015912075</v>
+        <v>0.01878890697104963</v>
       </c>
       <c r="Q22">
-        <v>351.2497249030771</v>
+        <v>1.45047789667</v>
       </c>
       <c r="R22">
-        <v>3161.247524127693</v>
+        <v>13.05430107003</v>
       </c>
       <c r="S22">
-        <v>0.01179290734442581</v>
+        <v>0.0002119793615447313</v>
       </c>
       <c r="T22">
-        <v>0.01581791370203233</v>
+        <v>0.0002561040872804904</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H23">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I23">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J23">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.505127</v>
       </c>
       <c r="O23">
-        <v>0.07232491018701338</v>
+        <v>0.2726197454399388</v>
       </c>
       <c r="P23">
-        <v>0.09665088552303537</v>
+        <v>0.3273398534952746</v>
       </c>
       <c r="Q23">
-        <v>327.3425381688991</v>
+        <v>25.270188570611</v>
       </c>
       <c r="R23">
-        <v>2946.082843520091</v>
+        <v>227.431697135499</v>
       </c>
       <c r="S23">
-        <v>0.01099024411643369</v>
+        <v>0.003693098979040705</v>
       </c>
       <c r="T23">
-        <v>0.01474129558731652</v>
+        <v>0.004461838814738326</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H24">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I24">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J24">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6422343333333332</v>
+        <v>0.72155</v>
       </c>
       <c r="N24">
-        <v>1.926703</v>
+        <v>2.16465</v>
       </c>
       <c r="O24">
-        <v>0.03975565548182683</v>
+        <v>0.1683608987539007</v>
       </c>
       <c r="P24">
-        <v>0.05312719085211143</v>
+        <v>0.2021542197668005</v>
       </c>
       <c r="Q24">
-        <v>179.934093776811</v>
+        <v>15.60602902245</v>
       </c>
       <c r="R24">
-        <v>1619.406843991299</v>
+        <v>140.45426120205</v>
       </c>
       <c r="S24">
-        <v>0.006041132406861474</v>
+        <v>0.002280735250100913</v>
       </c>
       <c r="T24">
-        <v>0.008103015506134155</v>
+        <v>0.0027554834362131</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H25">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I25">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J25">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.1977655</v>
+        <v>2.1492875</v>
       </c>
       <c r="N25">
-        <v>24.395531</v>
+        <v>4.298575</v>
       </c>
       <c r="O25">
-        <v>0.7550673293176684</v>
+        <v>0.501498129277977</v>
       </c>
       <c r="P25">
-        <v>0.6726859466018379</v>
+        <v>0.4014390664699025</v>
       </c>
       <c r="Q25">
-        <v>3417.434676768371</v>
+        <v>46.48581955871249</v>
       </c>
       <c r="R25">
-        <v>20504.60806061022</v>
+        <v>278.914917352275</v>
       </c>
       <c r="S25">
-        <v>0.1147374293599172</v>
+        <v>0.006793646682629431</v>
       </c>
       <c r="T25">
-        <v>0.1025987741615477</v>
+        <v>0.005471855594123634</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H26">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I26">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J26">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.8924576666666667</v>
+        <v>0.1794573333333333</v>
       </c>
       <c r="N26">
-        <v>2.677373</v>
+        <v>0.538372</v>
       </c>
       <c r="O26">
-        <v>0.05524500589055249</v>
+        <v>0.04187318678952025</v>
       </c>
       <c r="P26">
-        <v>0.07382627543180768</v>
+        <v>0.05027795329697268</v>
       </c>
       <c r="Q26">
-        <v>250.038892583601</v>
+        <v>3.881389165396</v>
       </c>
       <c r="R26">
-        <v>2250.35003325241</v>
+        <v>34.932502488564</v>
       </c>
       <c r="S26">
-        <v>0.00839484071782518</v>
+        <v>0.0005672436643648298</v>
       </c>
       <c r="T26">
-        <v>0.0112600618438363</v>
+        <v>0.0006853187021093106</v>
       </c>
     </row>
   </sheetData>
